--- a/data/arquivo_excel.xlsx
+++ b/data/arquivo_excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/271ebe4ef902fc36/Documentos/Projetos/jornada_dados_2024/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{E4DD84EF-80DD-430A-82C0-6B8B4854A74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69A209A8-8116-4D08-9406-1AFEC3F585DE}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{E4DD84EF-80DD-430A-82C0-6B8B4854A74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C589D581-4B15-4B95-B67F-2AC499643314}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BACF96B4-F65E-4546-9765-3161F66E2807}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>email</t>
   </si>
@@ -54,48 +54,6 @@
   </si>
   <si>
     <t>categoria</t>
-  </si>
-  <si>
-    <t>150.5</t>
-  </si>
-  <si>
-    <t>350.75</t>
-  </si>
-  <si>
-    <t>99.99</t>
-  </si>
-  <si>
-    <t>499.99</t>
-  </si>
-  <si>
-    <t>450.5</t>
-  </si>
-  <si>
-    <t>129.95</t>
-  </si>
-  <si>
-    <t>89.9</t>
-  </si>
-  <si>
-    <t>199.9</t>
-  </si>
-  <si>
-    <t>149.5</t>
-  </si>
-  <si>
-    <t>309.99</t>
-  </si>
-  <si>
-    <t>159.99</t>
-  </si>
-  <si>
-    <t>289.95</t>
-  </si>
-  <si>
-    <t>349.9</t>
-  </si>
-  <si>
-    <t>399.99</t>
   </si>
   <si>
     <t>usuario1@example.com</t>
@@ -231,6 +189,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -240,11 +201,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -256,7 +215,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -264,36 +223,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -311,10 +248,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -352,7 +293,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -458,7 +399,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -600,7 +541,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -611,16 +552,17 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -644,403 +586,403 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C2" s="1">
+        <v>150.5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44928</v>
+      </c>
+      <c r="C3" s="1">
+        <v>200</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44929</v>
+      </c>
+      <c r="C4" s="1">
+        <v>350.75</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44930</v>
+      </c>
+      <c r="C5" s="1">
+        <v>99.99</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44931</v>
+      </c>
+      <c r="C6" s="1">
+        <v>499.99</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44932</v>
+      </c>
+      <c r="C7" s="1">
+        <v>249</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44933</v>
+      </c>
+      <c r="C8" s="1">
+        <v>300</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44934</v>
+      </c>
+      <c r="C9" s="1">
+        <v>450.5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44935</v>
+      </c>
+      <c r="C10" s="1">
+        <v>129.94999999999999</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44936</v>
+      </c>
+      <c r="C11" s="1">
+        <v>89.9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44937</v>
+      </c>
+      <c r="C12" s="1">
+        <v>199.9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44938</v>
+      </c>
+      <c r="C13" s="1">
+        <v>149.5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44939</v>
+      </c>
+      <c r="C14" s="1">
+        <v>229</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44940</v>
+      </c>
+      <c r="C15" s="1">
+        <v>309.99</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3">
-        <v>44927</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B16" s="2">
+        <v>44941</v>
+      </c>
+      <c r="C16" s="1">
+        <v>399</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44942</v>
+      </c>
+      <c r="C17" s="1">
+        <v>129</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44943</v>
+      </c>
+      <c r="C18" s="1">
+        <v>159.99</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44944</v>
+      </c>
+      <c r="C19" s="1">
+        <v>289.95</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="1">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="3">
-        <v>44928</v>
-      </c>
-      <c r="C3" s="2">
-        <v>200</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="3">
-        <v>44929</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="F19" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44945</v>
+      </c>
+      <c r="C20" s="1">
+        <v>349.9</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44946</v>
+      </c>
+      <c r="C21" s="1">
+        <v>399.99</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="3">
-        <v>44930</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="2">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="3">
-        <v>44931</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="3">
-        <v>44932</v>
-      </c>
-      <c r="C7" s="2">
-        <v>249</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="3">
-        <v>44933</v>
-      </c>
-      <c r="C8" s="2">
-        <v>300</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="2">
-        <v>4</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" s="3">
-        <v>44934</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="3">
-        <v>44935</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="2">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="3">
-        <v>44936</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="3">
-        <v>44937</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="3">
-        <v>44938</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="2">
-        <v>4</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="3">
-        <v>44939</v>
-      </c>
-      <c r="C14" s="2">
-        <v>229</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="2">
-        <v>3</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="3">
-        <v>44940</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="3">
-        <v>44941</v>
-      </c>
-      <c r="C16" s="2">
-        <v>399</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="3">
-        <v>44942</v>
-      </c>
-      <c r="C17" s="2">
-        <v>129</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="2">
-        <v>5</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="3">
-        <v>44943</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="2">
-        <v>2</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="3">
-        <v>44944</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="2">
-        <v>3</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="3">
-        <v>44945</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="2">
-        <v>4</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="3">
-        <v>44946</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
